--- a/medicine/Pharmacie/Merial_(entreprise)/Merial_(entreprise).xlsx
+++ b/medicine/Pharmacie/Merial_(entreprise)/Merial_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Merial est un leader mondial en santé animale proposant une gamme complète de médicaments vétérinaires et de vaccins destinés à un grand nombre d’espèces animales.
@@ -514,13 +526,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1983, naissance de Rhône Mérieux, issu de la fusion des activités vétérinaires du groupe Rhône-Poulenc : Institut Mérieux, Institut de Sérothérapie de Toulouse, Specia et Laboratoire Roger Bellon[3].
-En août 1997, création de Merial, fusion de Rhône Mérieux et de MSD AgVet, numéro 1 mondial de la santé animale et filiale de Merck &amp; Co.. La fusion a été racontée par Louis Champel, président de Rhône Mérieux puis directeur général de Merial, dans Projet Python ou comment devenir n°1 mondial (2002)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1983, naissance de Rhône Mérieux, issu de la fusion des activités vétérinaires du groupe Rhône-Poulenc : Institut Mérieux, Institut de Sérothérapie de Toulouse, Specia et Laboratoire Roger Bellon.
+En août 1997, création de Merial, fusion de Rhône Mérieux et de MSD AgVet, numéro 1 mondial de la santé animale et filiale de Merck &amp; Co.. La fusion a été racontée par Louis Champel, président de Rhône Mérieux puis directeur général de Merial, dans Projet Python ou comment devenir n°1 mondial (2002).
 En septembre 2009, Merial devient filiale à 100 % de Sanofi-Aventis, à la suite du retrait de Merck &amp; Co.. Merck devient propriétaire de la nouvelle entité santé vétérinaire Intervet/Schering Plough basée à Boxmeer aux Pays-Bas.
-En septembre 2011, le siège mondial est déplacé au siège européen à Lyon dans le 7e arrondissement après son départ de Duluth, Géorgie, siège des activités américaines de Merial[5].
-Le 1er janvier 2017, Sanofi cède Merial à Boehringer Ingelheim[6]. En décembre 2018, le laboratoire allemand annonce qu'il va supprimer 327 postes en France sur un total de 2.800 salarié[7]
+En septembre 2011, le siège mondial est déplacé au siège européen à Lyon dans le 7e arrondissement après son départ de Duluth, Géorgie, siège des activités américaines de Merial.
+Le 1er janvier 2017, Sanofi cède Merial à Boehringer Ingelheim. En décembre 2018, le laboratoire allemand annonce qu'il va supprimer 327 postes en France sur un total de 2.800 salarié
 </t>
         </is>
       </c>
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
